--- a/biology/Histoire de la zoologie et de la botanique/Jean_Lhoste/Jean_Lhoste.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean_Lhoste/Jean_Lhoste.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Lhoste est un entomologiste français, né le 19 septembre 1913 à Charenton-le-Pont et mort le 1er décembre 2010 (à l'âge de 97 ans).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il découvre très jeune les insectes auprès de son père. Il étudie à Paris et rencontre, durant ses études secondaires les entomologistes René Gabriel Jeannel (1879-1965), Eugène Séguy (1890-1985) et Lucien Berland (1888-1962). Jean Lhoste entre au laboratoire d’entomologie du Muséum national d'histoire naturelle en 1932.
 Il poursuit ses études et étudie auprès de Charles Pérez (1873-1952), Lucien Plantefol (1891-1983), Louis Florimond Blaringhem (1878-1958) ou Roger Jean Gautheret (1910-1997). Il enseigne à Lens durant la Seconde Guerre mondiale avant de se réfugier à Bordeaux.
@@ -546,7 +560,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1979 : Des Insectes et des Hommes, Fayard (Paris) : 280 p.  (ISBN 2-213-00710-1)
 1987 : Les Entomologistes français. 1750-1950, INRA Éditions et OPIE : 351 p.
